--- a/[Axx2xIx]_Daily Report_AccountNam.xlsx
+++ b/[Axx2xIx]_Daily Report_AccountNam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A211607-47EB-47EF-8A87-E389221EEA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD90E157-68CC-4B11-946F-6CA2A8BED3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="127">
   <si>
     <t>Daily task report</t>
   </si>
@@ -45,7 +45,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Reporter: </t>
@@ -55,7 +55,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Nguyễn Quang Danh</t>
@@ -68,7 +68,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -78,7 +78,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 14/12/2020</t>
@@ -166,7 +166,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -176,7 +176,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 15/12/2020</t>
@@ -207,7 +207,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -217,7 +217,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 16/12/2020</t>
@@ -257,7 +257,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -267,7 +267,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 17/12/2020</t>
@@ -296,7 +296,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -306,7 +306,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 18/12/2020</t>
@@ -331,7 +331,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -341,7 +341,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 21/12/2020</t>
@@ -363,7 +363,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -373,7 +373,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 22/12/2020</t>
@@ -410,7 +410,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -420,7 +420,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 24/12/2020</t>
@@ -484,7 +484,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -494,7 +494,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 29/12/2020</t>
@@ -540,7 +540,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -550,7 +550,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 30/12/2020</t>
@@ -575,7 +575,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -585,7 +585,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 31/12/2020</t>
@@ -610,7 +610,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -620,7 +620,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 04/1/2020</t>
@@ -633,7 +633,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Date</t>
@@ -643,7 +643,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 05/1/2020</t>
@@ -680,38 +680,45 @@
     <t>3. Next day tasks</t>
   </si>
   <si>
-    <t>1/11/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Study Requirement]6.4.2. Thêm thông tin sinh viên
+    <t>[Coding Spring]6.4.3. Sửa thông tin sinh viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Coding Spring]6.4.2. Thêm thông tin sinh viên
 </t>
   </si>
   <si>
-    <t>[Study Requirement]6.4.3. Sửa thông tin sinh viên</t>
-  </si>
-  <si>
-    <t>[A1122I1]_Daily Report_KhoaHND_01/11/2023</t>
-  </si>
-  <si>
-    <t>[Create Prototype]6.4.2. Thêm thông tin sinh viên</t>
-  </si>
-  <si>
-    <t>[Create Prototype]6.4.3. Sửa thông tin sinh viên</t>
-  </si>
-  <si>
-    <t>03/11/2023</t>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>[Coding Angular + all]6.4.2. Thêm thông tin sinh viên</t>
+  </si>
+  <si>
+    <t>[Coding Angular + all]6.4.3. Sửa thông tin sinh viên</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>[A1122I1]_Daily Report_KhoaHND_22/11/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,14 +732,14 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,7 +747,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,14 +755,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,21 +770,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="163"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -789,7 +796,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -884,137 +891,141 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,8 +1494,8 @@
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
@@ -1501,14 +1512,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="15.6">
       <c r="A16" s="30">
@@ -1520,14 +1531,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -1767,8 +1778,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -1785,14 +1796,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -1804,14 +1815,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2047,8 +2058,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -2065,14 +2076,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -2084,14 +2095,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2332,8 +2343,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -2350,14 +2361,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -2369,14 +2380,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2571,8 +2582,8 @@
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
@@ -2589,14 +2600,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
@@ -2608,14 +2619,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -2810,8 +2821,8 @@
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
@@ -2828,14 +2839,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
@@ -2847,14 +2858,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -2874,16 +2885,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
@@ -2895,15 +2906,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" customHeight="1"/>
     <row r="2" spans="1:9" ht="17.399999999999999">
-      <c r="B2" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
       <c r="D4" s="1" t="s">
@@ -2944,14 +2955,14 @@
       <c r="C9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2965,10 +2976,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
     </row>
@@ -2978,10 +2989,10 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
     </row>
@@ -2991,10 +3002,10 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
     </row>
@@ -3004,10 +3015,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
     </row>
@@ -3044,39 +3055,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="46.8">
+    <row r="17" spans="1:7" ht="31.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>120</v>
-      </c>
+      <c r="C17" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="36"/>
       <c r="E17" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="31.2">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="5">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="7">
-        <v>44937</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -3143,22 +3150,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="31.2">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>126</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -3166,17 +3173,9 @@
       <c r="A27" s="5">
         <v>3</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6">
-      <c r="A28" s="5">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3192,7 +3191,7 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Not yet started, In progress, Resolved"</formula1>
@@ -3405,8 +3404,8 @@
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
@@ -3423,14 +3422,14 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="15.6">
       <c r="A17" s="30">
@@ -3442,14 +3441,14 @@
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>
@@ -3769,8 +3768,8 @@
     <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="21">
       <c r="A20" s="3" t="s">
@@ -3787,14 +3786,14 @@
       <c r="C21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="30">
@@ -3806,14 +3805,14 @@
       <c r="C22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="27" spans="1:7">
       <c r="C27" s="33"/>
@@ -4077,8 +4076,8 @@
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="3" t="s">
@@ -4095,14 +4094,14 @@
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A19" s="30">
@@ -4114,14 +4113,14 @@
       <c r="C19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -4381,8 +4380,8 @@
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="3" t="s">
@@ -4399,14 +4398,14 @@
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A19" s="30">
@@ -4418,14 +4417,14 @@
       <c r="C19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -4603,8 +4602,8 @@
     <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="21">
       <c r="A13" s="3" t="s">
@@ -4621,23 +4620,23 @@
       <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="33"/>
@@ -4882,8 +4881,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -4900,23 +4899,23 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -5136,8 +5135,8 @@
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
@@ -5154,23 +5153,23 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>
@@ -5392,8 +5391,8 @@
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
@@ -5410,14 +5409,14 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30">
@@ -5429,14 +5428,14 @@
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>

--- a/[Axx2xIx]_Daily Report_AccountNam.xlsx
+++ b/[Axx2xIx]_Daily Report_AccountNam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Dn_reactJs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD90E157-68CC-4B11-946F-6CA2A8BED3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B89D02-F8DB-4F22-A202-BE919F5346B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
     <t>24/11/2023</t>
   </si>
   <si>
-    <t>[A1122I1]_Daily Report_KhoaHND_22/11/2023</t>
+    <t>[A1122I1]_Daily Report_KhoaHND_24/11/2023</t>
   </si>
 </sst>
 </file>
@@ -998,6 +998,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,12 +1011,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1025,7 +1020,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,8 +1494,8 @@
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
@@ -1512,14 +1512,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="15.6">
       <c r="A16" s="30">
@@ -1531,14 +1531,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -1778,8 +1778,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -1796,14 +1796,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -1815,14 +1815,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2058,8 +2058,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -2076,14 +2076,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -2095,14 +2095,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2343,8 +2343,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -2361,14 +2361,14 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30">
@@ -2380,14 +2380,14 @@
       <c r="C18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -2582,8 +2582,8 @@
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
@@ -2600,14 +2600,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
@@ -2619,14 +2619,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -2821,8 +2821,8 @@
     <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" ht="21">
       <c r="A14" s="3" t="s">
@@ -2839,14 +2839,14 @@
       <c r="C15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
@@ -2858,14 +2858,14 @@
       <c r="C16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="33"/>
@@ -2888,7 +2888,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I27"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2906,15 +2906,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" customHeight="1"/>
     <row r="2" spans="1:9" ht="17.399999999999999">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
       <c r="D4" s="1" t="s">
@@ -2955,14 +2955,14 @@
       <c r="C9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="45" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2976,10 +2976,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
     </row>
@@ -2989,10 +2989,10 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
     </row>
@@ -3002,10 +3002,10 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
     </row>
@@ -3015,10 +3015,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
     </row>
@@ -3161,7 +3161,7 @@
       <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="38" t="s">
         <v>124</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -3179,17 +3179,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -3404,8 +3404,8 @@
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
@@ -3422,14 +3422,14 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="15.6">
       <c r="A17" s="30">
@@ -3441,14 +3441,14 @@
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>
@@ -3768,8 +3768,8 @@
     <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="21">
       <c r="A20" s="3" t="s">
@@ -3786,14 +3786,14 @@
       <c r="C21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="30">
@@ -3805,14 +3805,14 @@
       <c r="C22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="27" spans="1:7">
       <c r="C27" s="33"/>
@@ -4076,8 +4076,8 @@
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="3" t="s">
@@ -4094,14 +4094,14 @@
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A19" s="30">
@@ -4113,14 +4113,14 @@
       <c r="C19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -4380,8 +4380,8 @@
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="3" t="s">
@@ -4398,14 +4398,14 @@
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A19" s="30">
@@ -4417,14 +4417,14 @@
       <c r="C19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="33"/>
@@ -4602,8 +4602,8 @@
     <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="21">
       <c r="A13" s="3" t="s">
@@ -4620,23 +4620,23 @@
       <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="33"/>
@@ -4881,8 +4881,8 @@
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="21">
       <c r="A16" s="3" t="s">
@@ -4899,23 +4899,23 @@
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="33"/>
@@ -5135,8 +5135,8 @@
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
@@ -5153,23 +5153,23 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>
@@ -5391,8 +5391,8 @@
     <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="21">
       <c r="A15" s="3" t="s">
@@ -5409,14 +5409,14 @@
       <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30">
@@ -5428,14 +5428,14 @@
       <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="33"/>

--- a/[Axx2xIx]_Daily Report_AccountNam.xlsx
+++ b/[Axx2xIx]_Daily Report_AccountNam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Dn_reactJs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B89D02-F8DB-4F22-A202-BE919F5346B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB024A1-D0D8-4A8C-8BA1-B291793CEF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="126">
   <si>
     <t>Daily task report</t>
   </si>
@@ -680,26 +680,23 @@
     <t>3. Next day tasks</t>
   </si>
   <si>
-    <t>[Coding Spring]6.4.3. Sửa thông tin sinh viên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Coding Spring]6.4.2. Thêm thông tin sinh viên
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>[Coding Angular + all]6.4.2. Thêm thông tin sinh viên</t>
+  </si>
+  <si>
+    <t>[Coding Angular + all]6.4.3. Sửa thông tin sinh viên</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>[A1122I1]_Daily Report_KhoaHND_27/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Coding Angular + all]6.4.2. Thêm thông tin sinh viên
 </t>
-  </si>
-  <si>
-    <t>22/11/2023</t>
-  </si>
-  <si>
-    <t>[Coding Angular + all]6.4.2. Thêm thông tin sinh viên</t>
-  </si>
-  <si>
-    <t>[Coding Angular + all]6.4.3. Sửa thông tin sinh viên</t>
-  </si>
-  <si>
-    <t>24/11/2023</t>
-  </si>
-  <si>
-    <t>[A1122I1]_Daily Report_KhoaHND_24/11/2023</t>
   </si>
 </sst>
 </file>
@@ -1011,6 +1008,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1019,12 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2888,7 +2885,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="J20" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2906,15 +2903,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" customHeight="1"/>
     <row r="2" spans="1:9" ht="17.399999999999999">
-      <c r="B2" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
       <c r="D4" s="1" t="s">
@@ -2955,14 +2952,14 @@
       <c r="C9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2976,10 +2973,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
     </row>
@@ -2989,10 +2986,10 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
     </row>
@@ -3002,10 +2999,10 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
     </row>
@@ -3015,10 +3012,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
     </row>
@@ -3055,15 +3052,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.2">
+    <row r="17" spans="1:7" ht="46.8">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="14" t="s">
@@ -3071,15 +3068,15 @@
       </c>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6">
+    <row r="18" spans="1:7" ht="31.2">
       <c r="A18" s="5">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>122</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="14" t="s">
@@ -3150,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>123</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>125</v>
       </c>
       <c r="D25" s="7"/>
     </row>
@@ -3162,10 +3159,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -3179,17 +3176,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">

--- a/[Axx2xIx]_Daily Report_AccountNam.xlsx
+++ b/[Axx2xIx]_Daily Report_AccountNam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Dn_reactJs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB024A1-D0D8-4A8C-8BA1-B291793CEF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8818C5-8A8F-4CB1-BDC4-26E40512E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="127">
   <si>
     <t>Daily task report</t>
   </si>
@@ -683,20 +683,23 @@
     <t>22/11/2023</t>
   </si>
   <si>
-    <t>[Coding Angular + all]6.4.2. Thêm thông tin sinh viên</t>
-  </si>
-  <si>
     <t>[Coding Angular + all]6.4.3. Sửa thông tin sinh viên</t>
-  </si>
-  <si>
-    <t>24/11/2023</t>
-  </si>
-  <si>
-    <t>[A1122I1]_Daily Report_KhoaHND_27/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">[Coding Angular + all]6.4.2. Thêm thông tin sinh viên
 </t>
+  </si>
+  <si>
+    <t>[Review code (Sonarqube)]6.4.2. Thêm thông tin sinh viên</t>
+  </si>
+  <si>
+    <t>[Review code (Sonarqube)]6.4.3. Sửa thông tin sinh viên</t>
+  </si>
+  <si>
+    <t>[A1122I1]_Daily Report_KhoaHND_01/12/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +2888,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J19:J20"/>
+      <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2904,7 +2907,7 @@
     <row r="1" spans="1:9" ht="14.7" customHeight="1"/>
     <row r="2" spans="1:9" ht="17.399999999999999">
       <c r="B2" s="45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -3057,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>120</v>
@@ -3073,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>120</v>
@@ -3147,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7"/>
     </row>
@@ -3159,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44938</v>
       </c>
       <c r="D26" s="7"/>
     </row>
